--- a/spliced/walkingToRunning/2023-04-03_17-00-11/data_selected.xlsx
+++ b/spliced/walkingToRunning/2023-04-03_17-00-11/data_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4.181402321943324</v>
+        <v>-4.399603349646254</v>
       </c>
       <c r="D2" t="n">
-        <v>-13.55545660392537</v>
+        <v>-32.20032115818277</v>
       </c>
       <c r="E2" t="n">
-        <v>3.205564154791972</v>
+        <v>-1.038676389713888</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.820753812789917</v>
+        <v>2.395846366882324</v>
       </c>
       <c r="G2" t="n">
-        <v>1.492368936538696</v>
+        <v>5.165933609008789</v>
       </c>
       <c r="H2" t="n">
-        <v>1.348425030708313</v>
+        <v>-3.433014392852783</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2.664523610134713</v>
+        <v>2.827775232570724</v>
       </c>
       <c r="D3" t="n">
-        <v>-6.350481726459617</v>
+        <v>-30.86045528687148</v>
       </c>
       <c r="E3" t="n">
-        <v>4.292131388310294</v>
+        <v>2.059290839839234</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.4990098178386688</v>
+        <v>-4.131561756134033</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1838247030973434</v>
+        <v>1.293697118759155</v>
       </c>
       <c r="H3" t="n">
-        <v>2.626742362976074</v>
+        <v>3.305315971374512</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>13.44853089519381</v>
+        <v>9.072769558306828</v>
       </c>
       <c r="D4" t="n">
-        <v>-4.059543707936083</v>
+        <v>-14.51345410297827</v>
       </c>
       <c r="E4" t="n">
-        <v>3.958563812000231</v>
+        <v>10.26892458532274</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.682767927646637</v>
+        <v>-11.94900512695312</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9831725358963012</v>
+        <v>-0.5390903949737549</v>
       </c>
       <c r="H4" t="n">
-        <v>2.719953060150146</v>
+        <v>0.9473530054092408</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>22.60065357955459</v>
+        <v>1.526257913137283</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.7869508549110522</v>
+        <v>-15.38509752332542</v>
       </c>
       <c r="E5" t="n">
-        <v>5.567218827218129</v>
+        <v>-1.262450129715198</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2338921278715133</v>
+        <v>6.543986320495605</v>
       </c>
       <c r="G5" t="n">
-        <v>-1.52872109413147</v>
+        <v>-9.976800918579102</v>
       </c>
       <c r="H5" t="n">
-        <v>-1.387706637382507</v>
+        <v>-2.196774959564209</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>20.81180861561567</v>
+        <v>6.41234910119443</v>
       </c>
       <c r="D6" t="n">
-        <v>4.192459489881387</v>
+        <v>-10.75634378256254</v>
       </c>
       <c r="E6" t="n">
-        <v>5.852121943051054</v>
+        <v>-6.548929008011939</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9066066145896912</v>
+        <v>2.871486902236938</v>
       </c>
       <c r="G6" t="n">
-        <v>-3.112236738204956</v>
+        <v>-5.876065254211426</v>
       </c>
       <c r="H6" t="n">
-        <v>-6.98673677444458</v>
+        <v>-3.124087810516357</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>9.248951935276555</v>
+        <v>32.94686977150512</v>
       </c>
       <c r="D7" t="n">
-        <v>-6.419107528076937</v>
+        <v>-15.4527910517663</v>
       </c>
       <c r="E7" t="n">
-        <v>1.739659212299236</v>
+        <v>-8.939652902563815</v>
       </c>
       <c r="F7" t="n">
-        <v>4.141814708709717</v>
+        <v>7.37382698059082</v>
       </c>
       <c r="G7" t="n">
-        <v>1.03110945224762</v>
+        <v>11.17136192321777</v>
       </c>
       <c r="H7" t="n">
-        <v>-3.055378198623657</v>
+        <v>-1.706753373146057</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-4.399603349646254</v>
+        <v>53.20190917339517</v>
       </c>
       <c r="D8" t="n">
-        <v>-32.20032115818277</v>
+        <v>-41.65597895986004</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.038676389713888</v>
+        <v>-19.47473356895838</v>
       </c>
       <c r="F8" t="n">
-        <v>2.395846366882324</v>
+        <v>-4.830907821655273</v>
       </c>
       <c r="G8" t="n">
-        <v>5.165933609008789</v>
+        <v>0.3003380000591278</v>
       </c>
       <c r="H8" t="n">
-        <v>-3.433014392852783</v>
+        <v>1.922602653503418</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2.827775232570724</v>
+        <v>26.88092610516489</v>
       </c>
       <c r="D9" t="n">
-        <v>-30.86045528687148</v>
+        <v>-29.92789514040201</v>
       </c>
       <c r="E9" t="n">
-        <v>2.059290839839234</v>
+        <v>-3.621464901363669</v>
       </c>
       <c r="F9" t="n">
-        <v>-4.131561756134033</v>
+        <v>-6.295113563537598</v>
       </c>
       <c r="G9" t="n">
-        <v>1.293697118759155</v>
+        <v>2.037784337997437</v>
       </c>
       <c r="H9" t="n">
-        <v>3.305315971374512</v>
+        <v>3.717573165893554</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>9.072769558306828</v>
+        <v>-14.28073297579263</v>
       </c>
       <c r="D10" t="n">
-        <v>-14.51345410297827</v>
+        <v>-29.62231750586597</v>
       </c>
       <c r="E10" t="n">
-        <v>10.26892458532274</v>
+        <v>40.7812210653246</v>
       </c>
       <c r="F10" t="n">
-        <v>-11.94900512695312</v>
+        <v>-1.753358721733093</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.5390903949737549</v>
+        <v>12.93171119689941</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9473530054092408</v>
+        <v>2.580935955047607</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1.526257913137283</v>
+        <v>29.81173590040617</v>
       </c>
       <c r="D11" t="n">
-        <v>-15.38509752332542</v>
+        <v>-15.35024061891273</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.262450129715198</v>
+        <v>27.41680280449521</v>
       </c>
       <c r="F11" t="n">
-        <v>6.543986320495605</v>
+        <v>-3.18294358253479</v>
       </c>
       <c r="G11" t="n">
-        <v>-9.976800918579102</v>
+        <v>-2.735665798187256</v>
       </c>
       <c r="H11" t="n">
-        <v>-2.196774959564209</v>
+        <v>0.6512094736099243</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>6.41234910119443</v>
+        <v>38.08487456606819</v>
       </c>
       <c r="D12" t="n">
-        <v>-10.75634378256254</v>
+        <v>8.25389982253002</v>
       </c>
       <c r="E12" t="n">
-        <v>-6.548929008011939</v>
+        <v>-6.631011874405364</v>
       </c>
       <c r="F12" t="n">
-        <v>2.871486902236938</v>
+        <v>7.503256797790527</v>
       </c>
       <c r="G12" t="n">
-        <v>-5.876065254211426</v>
+        <v>0.8255133628845215</v>
       </c>
       <c r="H12" t="n">
-        <v>-3.124087810516357</v>
+        <v>-1.698231339454651</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>32.94686977150512</v>
+        <v>15.41566228866577</v>
       </c>
       <c r="D13" t="n">
-        <v>-15.4527910517663</v>
+        <v>-42.39830100536346</v>
       </c>
       <c r="E13" t="n">
-        <v>-8.939652902563815</v>
+        <v>41.37434816360474</v>
       </c>
       <c r="F13" t="n">
-        <v>7.37382698059082</v>
+        <v>-1.000749349594116</v>
       </c>
       <c r="G13" t="n">
-        <v>11.17136192321777</v>
+        <v>-2.794787883758545</v>
       </c>
       <c r="H13" t="n">
-        <v>-1.706753373146057</v>
+        <v>-1.550159573554993</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>53.20190917339517</v>
+        <v>32.54000410099627</v>
       </c>
       <c r="D14" t="n">
-        <v>-41.65597895986004</v>
+        <v>-39.22240943515485</v>
       </c>
       <c r="E14" t="n">
-        <v>-19.47473356895838</v>
+        <v>45.66644129802327</v>
       </c>
       <c r="F14" t="n">
-        <v>-4.830907821655273</v>
+        <v>-2.628473520278931</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3003380000591278</v>
+        <v>-2.876280546188354</v>
       </c>
       <c r="H14" t="n">
-        <v>1.922602653503418</v>
+        <v>-0.96160089969635</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>26.88092610516489</v>
+        <v>24.84834649390785</v>
       </c>
       <c r="D15" t="n">
-        <v>-29.92789514040201</v>
+        <v>-8.03618379229086</v>
       </c>
       <c r="E15" t="n">
-        <v>-3.621464901363669</v>
+        <v>24.45961570739691</v>
       </c>
       <c r="F15" t="n">
-        <v>-6.295113563537598</v>
+        <v>-5.674064636230469</v>
       </c>
       <c r="G15" t="n">
-        <v>2.037784337997437</v>
+        <v>-1.664009690284729</v>
       </c>
       <c r="H15" t="n">
-        <v>3.717573165893554</v>
+        <v>-3.089466571807861</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-14.28073297579263</v>
+        <v>-12.76972269274368</v>
       </c>
       <c r="D16" t="n">
-        <v>-29.62231750586597</v>
+        <v>-22.28177534673628</v>
       </c>
       <c r="E16" t="n">
-        <v>40.7812210653246</v>
+        <v>15.843390720408</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.753358721733093</v>
+        <v>0.2152500003576278</v>
       </c>
       <c r="G16" t="n">
-        <v>12.93171119689941</v>
+        <v>15.8856897354126</v>
       </c>
       <c r="H16" t="n">
-        <v>2.580935955047607</v>
+        <v>-3.721701145172119</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>29.81173590040617</v>
+        <v>-17.05221034571044</v>
       </c>
       <c r="D17" t="n">
-        <v>-15.35024061891273</v>
+        <v>-9.689534740349583</v>
       </c>
       <c r="E17" t="n">
-        <v>27.41680280449521</v>
+        <v>-7.262813420639774</v>
       </c>
       <c r="F17" t="n">
-        <v>-3.18294358253479</v>
+        <v>1.613942265510559</v>
       </c>
       <c r="G17" t="n">
-        <v>-2.735665798187256</v>
+        <v>-4.874184131622314</v>
       </c>
       <c r="H17" t="n">
-        <v>0.6512094736099243</v>
+        <v>-0.0044607948511838</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>38.08487456606819</v>
+        <v>7.601734495654355</v>
       </c>
       <c r="D18" t="n">
-        <v>8.25389982253002</v>
+        <v>-7.369463099647012</v>
       </c>
       <c r="E18" t="n">
-        <v>-6.631011874405364</v>
+        <v>0.05982191538072679</v>
       </c>
       <c r="F18" t="n">
-        <v>7.503256797790527</v>
+        <v>4.66752290725708</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8255133628845215</v>
+        <v>-2.795853137969971</v>
       </c>
       <c r="H18" t="n">
-        <v>-1.698231339454651</v>
+        <v>-8.249074935913086</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>15.41566228866577</v>
+        <v>-5.084137159524504</v>
       </c>
       <c r="D19" t="n">
-        <v>-42.39830100536346</v>
+        <v>-17.42479633056011</v>
       </c>
       <c r="E19" t="n">
-        <v>41.37434816360474</v>
+        <v>13.42315847357525</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.000749349594116</v>
+        <v>1.00194776058197</v>
       </c>
       <c r="G19" t="n">
-        <v>-2.794787883758545</v>
+        <v>-2.820886850357056</v>
       </c>
       <c r="H19" t="n">
-        <v>-1.550159573554993</v>
+        <v>4.437692165374756</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>32.54000410099627</v>
+        <v>-2.988111949458581</v>
       </c>
       <c r="D20" t="n">
-        <v>-39.22240943515485</v>
+        <v>-1.541268535496201</v>
       </c>
       <c r="E20" t="n">
-        <v>45.66644129802327</v>
+        <v>24.50189582588753</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.628473520278931</v>
+        <v>-8.889565467834473</v>
       </c>
       <c r="G20" t="n">
-        <v>-2.876280546188354</v>
+        <v>1.164800047874451</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.96160089969635</v>
+        <v>11.45938301086426</v>
       </c>
     </row>
     <row r="21">
@@ -1017,22 +1017,302 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>24.84834649390785</v>
+        <v>16.88818173740272</v>
       </c>
       <c r="D21" t="n">
-        <v>-8.03618379229086</v>
+        <v>-21.43393101642941</v>
       </c>
       <c r="E21" t="n">
-        <v>24.45961570739691</v>
+        <v>26.25781544950798</v>
       </c>
       <c r="F21" t="n">
-        <v>-5.674064636230469</v>
+        <v>2.723947763442993</v>
       </c>
       <c r="G21" t="n">
-        <v>-1.664009690284729</v>
+        <v>6.857040882110596</v>
       </c>
       <c r="H21" t="n">
-        <v>-3.089466571807861</v>
+        <v>-5.117730140686035</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>11.71483505878375</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-29.24488582807863</v>
+      </c>
+      <c r="E22" t="n">
+        <v>14.33557478914648</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1.208609104156494</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-8.24947452545166</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-0.5370930433273315</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>-17.89474326064904</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1.058929585918881</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-6.072563363104724</v>
+      </c>
+      <c r="F23" t="n">
+        <v>8.961604118347168</v>
+      </c>
+      <c r="G23" t="n">
+        <v>6.756906032562256</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-2.651110410690308</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>-6.588068613071894</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-42.04801777711909</v>
+      </c>
+      <c r="E24" t="n">
+        <v>27.395873059932</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-2.561361789703369</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1.376787781715393</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1.834718346595764</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>4.73087814911125</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-46.72824330182412</v>
+      </c>
+      <c r="E25" t="n">
+        <v>40.59463504909236</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-2.701976776123047</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1.867341995239258</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1.237104892730713</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>13.50610577691452</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-5.020019875359202</v>
+      </c>
+      <c r="E26" t="n">
+        <v>23.69000314928804</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-5.291634559631348</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-3.584681510925293</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-2.499310255050659</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>-13.47701175925547</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-14.91354519067346</v>
+      </c>
+      <c r="E27" t="n">
+        <v>16.03211706692484</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-0.4974119365215301</v>
+      </c>
+      <c r="G27" t="n">
+        <v>12.873122215271</v>
+      </c>
+      <c r="H27" t="n">
+        <v>5.119993686676025</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2600</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>-16.10707013631821</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-7.06407377891983</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-12.22038123533914</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-0.0159123875200748</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1.14615797996521</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3.750063896179199</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2700</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>17.60490359473454</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-9.783274660405542</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-4.873167308335432</v>
+      </c>
+      <c r="F29" t="n">
+        <v>8.204200744628906</v>
+      </c>
+      <c r="G29" t="n">
+        <v>6.466621398925781</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-1.093693733215332</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2800</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>-13.56971339589527</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-42.06590333918953</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1.837090728209249</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-1.878527283668518</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-2.402770519256592</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.963331937789917</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2900</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.4818755535735217</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-32.3410521585916</v>
+      </c>
+      <c r="E31" t="n">
+        <v>8.205087691238255</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-2.405300617218018</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1.181844353675843</v>
+      </c>
+      <c r="H31" t="n">
+        <v>4.602807998657227</v>
       </c>
     </row>
   </sheetData>
